--- a/Data Installation Smart Nestboxes.xlsx
+++ b/Data Installation Smart Nestboxes.xlsx
@@ -262,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +272,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -302,6 +308,10 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -606,7 +616,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,21 +653,25 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="14">
         <v>1099.36443081332</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="14">
         <v>309324.92092090403</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="14">
         <v>0.99999267105093104</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15">
+        <v>43585</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -728,23 +742,24 @@
         <v>0.99998567905762303</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="14">
         <v>1143.12552107224</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="14">
         <v>315102.57887987403</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="14">
         <v>0.99998693726721699</v>
       </c>
-      <c r="G7" s="7">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15">
         <v>43566</v>
       </c>
     </row>
@@ -854,23 +869,24 @@
         <v>0.99969084389126694</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="16">
         <v>1207.2190160816699</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="16">
         <v>426885.67511877901</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="16">
         <v>0.99999968827414198</v>
       </c>
-      <c r="G15" s="7">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15">
         <v>43579</v>
       </c>
     </row>
